--- a/Surface roughness.xlsx
+++ b/Surface roughness.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\PycharmProjects\SmartManufacturingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CB1408-E15A-4B9F-9DD5-D8A8FAFC0AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103BD405-3DBD-4C1B-99E0-AA806D7663F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F2F9318-F7DE-481E-B189-4D4D66BAB369}"/>
   </bookViews>
@@ -461,12 +461,15 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2">
         <v>0.03</v>
@@ -568,16 +571,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>0.25600000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -606,22 +609,22 @@
         <v>130</v>
       </c>
       <c r="C4" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D4" s="2">
         <v>7</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>0.498</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -650,7 +653,7 @@
         <v>160</v>
       </c>
       <c r="C5" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D5" s="2">
         <v>7</v>
@@ -665,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>0.46400000000000002</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -691,25 +694,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="C6" s="2">
         <v>0.03</v>
       </c>
       <c r="D6" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
         <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>0.42799999999999999</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -741,19 +744,19 @@
         <v>0.03</v>
       </c>
       <c r="D7" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>0.252</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -785,7 +788,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -797,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>0.56100000000000005</v>
+        <v>0.498</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -823,25 +826,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
         <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>0.51200000000000001</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -867,25 +870,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>144.22</v>
+        <v>130</v>
       </c>
       <c r="C10" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>0.46400000000000002</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -911,13 +914,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>144.22</v>
+        <v>160</v>
       </c>
       <c r="C11" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -929,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>0.44400000000000001</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -955,25 +958,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>144.22</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="2">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
         <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>0.44800000000000001</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -999,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>144.22</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>0.42399999999999999</v>
+        <v>0.624</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1043,13 +1046,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>124.53</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D14" s="2">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1061,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>0.32800000000000001</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1087,25 +1090,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>124.53</v>
+        <v>130</v>
       </c>
       <c r="C15" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D15" s="2">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
         <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>0.32400000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1131,25 +1134,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>167.03</v>
+        <v>130</v>
       </c>
       <c r="C16" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D16" s="2">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>0.23599999999999999</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1175,13 +1178,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>167.03</v>
+        <v>160</v>
       </c>
       <c r="C17" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D17" s="2">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -1193,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>0.24</v>
+        <v>0.252</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1219,25 +1222,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>144.22</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D18" s="2">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
         <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>0.252</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1263,25 +1266,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>144.22</v>
+        <v>160</v>
       </c>
       <c r="C19" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D19" s="2">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>0.26200000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1307,13 +1310,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>144.22</v>
+        <v>130</v>
       </c>
       <c r="C20" s="2">
-        <v>8.3000000000000004E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D20" s="2">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -1325,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="2">
-        <v>0.58399999999999996</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1351,25 +1354,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>144.22</v>
+        <v>130</v>
       </c>
       <c r="C21" s="2">
-        <v>8.3000000000000004E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D21" s="2">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
         <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>0.65600000000000003</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1395,25 +1398,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>144.22</v>
+        <v>130</v>
       </c>
       <c r="C22" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D22" s="2">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="E22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>0.30399999999999999</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1439,13 +1442,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>144.22</v>
+        <v>160</v>
       </c>
       <c r="C23" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D23" s="2">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -1457,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>0.28799999999999998</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1483,25 +1486,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>144.22</v>
+        <v>160</v>
       </c>
       <c r="C24" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D24" s="2">
-        <v>14.8</v>
+        <v>13</v>
       </c>
       <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
         <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>0.316</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1527,25 +1530,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>144.22</v>
+        <v>160</v>
       </c>
       <c r="C25" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D25" s="2">
-        <v>14.8</v>
+        <v>13</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2">
-        <v>0.34799999999999998</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1571,25 +1574,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
+        <v>144.22</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="E26" s="2">
         <v>1</v>
-      </c>
-      <c r="C26" s="2">
-        <v>130</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="E26" s="2">
-        <v>7</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1615,25 +1618,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>2</v>
+        <v>144.22</v>
       </c>
       <c r="C27" s="2">
-        <v>160</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D27" s="2">
-        <v>0.03</v>
+        <v>9.5</v>
       </c>
       <c r="E27" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
         <v>0</v>
       </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1659,16 +1662,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>3</v>
+        <v>144.22</v>
       </c>
       <c r="C28" s="2">
-        <v>130</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D28" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E28" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -1677,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1703,25 +1706,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>4</v>
+        <v>144.22</v>
       </c>
       <c r="C29" s="2">
-        <v>160</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D29" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E29" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1747,25 +1750,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>5</v>
+        <v>144.22</v>
       </c>
       <c r="C30" s="2">
-        <v>130</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D30" s="2">
-        <v>0.03</v>
+        <v>9.5</v>
       </c>
       <c r="E30" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
         <v>0</v>
       </c>
-      <c r="G30" s="2">
-        <v>1</v>
-      </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1791,16 +1794,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>6</v>
+        <v>144.22</v>
       </c>
       <c r="C31" s="2">
-        <v>160</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D31" s="2">
-        <v>0.03</v>
+        <v>9.5</v>
       </c>
       <c r="E31" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
@@ -1809,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1835,25 +1838,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>7</v>
+        <v>144.22</v>
       </c>
       <c r="C32" s="2">
-        <v>130</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D32" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E32" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1879,25 +1882,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>8</v>
+        <v>144.22</v>
       </c>
       <c r="C33" s="2">
-        <v>160</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D33" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E33" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
         <v>0</v>
       </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1923,16 +1926,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>9</v>
+        <v>144.22</v>
       </c>
       <c r="C34" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D34" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E34" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -1941,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1967,25 +1970,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>10</v>
+        <v>144.22</v>
       </c>
       <c r="C35" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D35" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E35" s="2">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2011,25 +2014,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>11</v>
+        <v>144.22</v>
       </c>
       <c r="C36" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D36" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E36" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
         <v>0</v>
       </c>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
       <c r="H36" s="2">
-        <v>0</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2055,16 +2058,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>12</v>
+        <v>144.22</v>
       </c>
       <c r="C37" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D37" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E37" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
@@ -2073,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2099,25 +2102,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>13</v>
+        <v>124.53</v>
       </c>
       <c r="C38" s="2">
-        <v>124.53</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D38" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E38" s="2">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2143,25 +2146,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>14</v>
+        <v>124.53</v>
       </c>
       <c r="C39" s="2">
-        <v>124.53</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D39" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E39" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
         <v>0</v>
       </c>
-      <c r="G39" s="2">
-        <v>1</v>
-      </c>
       <c r="H39" s="2">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2187,16 +2190,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>15</v>
+        <v>124.53</v>
       </c>
       <c r="C40" s="2">
-        <v>167.03</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D40" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E40" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -2205,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2231,25 +2234,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>16</v>
+        <v>124.53</v>
       </c>
       <c r="C41" s="2">
-        <v>167.03</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D41" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E41" s="2">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>0</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2275,25 +2278,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>17</v>
+        <v>124.53</v>
       </c>
       <c r="C42" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D42" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E42" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
         <v>0</v>
       </c>
-      <c r="G42" s="2">
-        <v>1</v>
-      </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>0.308</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2319,16 +2322,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>18</v>
+        <v>124.53</v>
       </c>
       <c r="C43" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D43" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E43" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
@@ -2337,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="2">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2363,25 +2366,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>19</v>
+        <v>167.03</v>
       </c>
       <c r="C44" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D44" s="2">
-        <v>8.3000000000000004E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E44" s="2">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
       </c>
       <c r="G44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2">
-        <v>0</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2407,25 +2410,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>20</v>
+        <v>167.03</v>
       </c>
       <c r="C45" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D45" s="2">
-        <v>8.3000000000000004E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E45" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
         <v>0</v>
       </c>
-      <c r="G45" s="2">
-        <v>1</v>
-      </c>
       <c r="H45" s="2">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2451,16 +2454,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>21</v>
+        <v>167.03</v>
       </c>
       <c r="C46" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D46" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E46" s="2">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -2469,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2495,25 +2498,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>22</v>
+        <v>167.03</v>
       </c>
       <c r="C47" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D47" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E47" s="2">
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="2">
         <v>0</v>
       </c>
       <c r="G47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2539,25 +2542,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>23</v>
+        <v>167.03</v>
       </c>
       <c r="C48" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D48" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E48" s="2">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
         <v>0</v>
       </c>
-      <c r="G48" s="2">
-        <v>1</v>
-      </c>
       <c r="H48" s="2">
-        <v>0</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2583,16 +2586,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>24</v>
+        <v>167.03</v>
       </c>
       <c r="C49" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D49" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E49" s="2">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
@@ -2601,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="2">
-        <v>0</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2627,16 +2630,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>25</v>
+        <v>144.22</v>
       </c>
       <c r="C50" s="2">
-        <v>130</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D50" s="2">
-        <v>0.03</v>
+        <v>9.5</v>
       </c>
       <c r="E50" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F50" s="2">
         <v>0</v>
@@ -2645,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="2">
-        <v>1</v>
+        <v>0.252</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2671,25 +2674,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>26</v>
+        <v>144.22</v>
       </c>
       <c r="C51" s="2">
-        <v>160</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D51" s="2">
-        <v>0.03</v>
+        <v>9.5</v>
       </c>
       <c r="E51" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="2">
         <v>0</v>
       </c>
       <c r="H51" s="2">
-        <v>1</v>
+        <v>0.308</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2715,25 +2718,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>27</v>
+        <v>144.22</v>
       </c>
       <c r="C52" s="2">
-        <v>130</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D52" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E52" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2">
         <v>0</v>
       </c>
       <c r="G52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="2">
-        <v>1</v>
+        <v>0.23</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2759,16 +2762,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>28</v>
+        <v>144.22</v>
       </c>
       <c r="C53" s="2">
-        <v>160</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D53" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E53" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
@@ -2777,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="2">
-        <v>1</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2803,25 +2806,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>29</v>
+        <v>144.22</v>
       </c>
       <c r="C54" s="2">
-        <v>130</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D54" s="2">
-        <v>0.03</v>
+        <v>9.5</v>
       </c>
       <c r="E54" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="2">
         <v>0</v>
       </c>
       <c r="H54" s="2">
-        <v>1</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2847,25 +2850,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>30</v>
+        <v>144.22</v>
       </c>
       <c r="C55" s="2">
-        <v>160</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D55" s="2">
-        <v>0.03</v>
+        <v>9.5</v>
       </c>
       <c r="E55" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2">
         <v>0</v>
       </c>
       <c r="G55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="2">
-        <v>1</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2891,16 +2894,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>31</v>
+        <v>144.22</v>
       </c>
       <c r="C56" s="2">
-        <v>130</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D56" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E56" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F56" s="2">
         <v>0</v>
@@ -2909,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="2">
-        <v>1</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2935,25 +2938,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>32</v>
+        <v>144.22</v>
       </c>
       <c r="C57" s="2">
-        <v>160</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D57" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E57" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="2">
         <v>0</v>
       </c>
       <c r="H57" s="2">
-        <v>1</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2979,25 +2982,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>33</v>
+        <v>144.22</v>
       </c>
       <c r="C58" s="2">
-        <v>144.22</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D58" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E58" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="F58" s="2">
         <v>0</v>
       </c>
       <c r="G58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="2">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -3023,16 +3026,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>34</v>
+        <v>144.22</v>
       </c>
       <c r="C59" s="2">
-        <v>144.22</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D59" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E59" s="2">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="F59" s="2">
         <v>0</v>
@@ -3041,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="2">
-        <v>1</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -3067,25 +3070,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>35</v>
+        <v>144.22</v>
       </c>
       <c r="C60" s="2">
-        <v>144.22</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D60" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E60" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="2">
         <v>0</v>
       </c>
       <c r="H60" s="2">
-        <v>1</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -3111,25 +3114,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>36</v>
+        <v>144.22</v>
       </c>
       <c r="C61" s="2">
-        <v>144.22</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D61" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>9.5</v>
       </c>
       <c r="E61" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2">
         <v>0</v>
       </c>
       <c r="G61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="2">
-        <v>1</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -3155,16 +3158,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>37</v>
+        <v>144.22</v>
       </c>
       <c r="C62" s="2">
-        <v>124.53</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D62" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>6.2</v>
       </c>
       <c r="E62" s="2">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="F62" s="2">
         <v>0</v>
@@ -3173,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="2">
-        <v>1</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -3199,25 +3202,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>38</v>
+        <v>144.22</v>
       </c>
       <c r="C63" s="2">
-        <v>124.53</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D63" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>6.2</v>
       </c>
       <c r="E63" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="2">
         <v>0</v>
       </c>
       <c r="H63" s="2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -3243,25 +3246,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>39</v>
+        <v>144.22</v>
       </c>
       <c r="C64" s="2">
-        <v>167.03</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D64" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>6.2</v>
       </c>
       <c r="E64" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2">
         <v>0</v>
       </c>
       <c r="G64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="2">
-        <v>1</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -3287,16 +3290,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>40</v>
+        <v>144.22</v>
       </c>
       <c r="C65" s="2">
-        <v>167.03</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D65" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>6.2</v>
       </c>
       <c r="E65" s="2">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="F65" s="2">
         <v>0</v>
@@ -3305,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="2">
-        <v>1</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -3331,25 +3334,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>41</v>
+        <v>144.22</v>
       </c>
       <c r="C66" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D66" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>6.2</v>
       </c>
       <c r="E66" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="F66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="2">
         <v>0</v>
       </c>
       <c r="H66" s="2">
-        <v>1</v>
+        <v>0.316</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -3375,25 +3378,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>42</v>
+        <v>144.22</v>
       </c>
       <c r="C67" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D67" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>6.2</v>
       </c>
       <c r="E67" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="F67" s="2">
         <v>0</v>
       </c>
       <c r="G67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="2">
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -3419,16 +3422,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>43</v>
+        <v>144.22</v>
       </c>
       <c r="C68" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D68" s="2">
-        <v>8.3000000000000004E-2</v>
+        <v>14.8</v>
       </c>
       <c r="E68" s="2">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="F68" s="2">
         <v>0</v>
@@ -3437,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="2">
-        <v>1</v>
+        <v>0.316</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -3463,25 +3466,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>44</v>
+        <v>144.22</v>
       </c>
       <c r="C69" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D69" s="2">
-        <v>8.3000000000000004E-2</v>
+        <v>14.8</v>
       </c>
       <c r="E69" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="F69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
       </c>
       <c r="H69" s="2">
-        <v>1</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -3507,25 +3510,25 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>45</v>
+        <v>144.22</v>
       </c>
       <c r="C70" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D70" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>14.8</v>
       </c>
       <c r="E70" s="2">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="F70" s="2">
         <v>0</v>
       </c>
       <c r="G70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="2">
-        <v>1</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -3551,16 +3554,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>46</v>
+        <v>144.22</v>
       </c>
       <c r="C71" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D71" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>14.8</v>
       </c>
       <c r="E71" s="2">
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="F71" s="2">
         <v>0</v>
@@ -3569,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="2">
-        <v>1</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3595,25 +3598,25 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>47</v>
+        <v>144.22</v>
       </c>
       <c r="C72" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D72" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>14.8</v>
       </c>
       <c r="E72" s="2">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="F72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="2">
         <v>0</v>
       </c>
       <c r="H72" s="2">
-        <v>1</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -3639,25 +3642,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>48</v>
+        <v>144.22</v>
       </c>
       <c r="C73" s="2">
-        <v>144.22</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D73" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>14.8</v>
       </c>
       <c r="E73" s="2">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="F73" s="2">
         <v>0</v>
       </c>
       <c r="G73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="2">
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
